--- a/BackTest/2020-01-25 BackTest MCO.xlsx
+++ b/BackTest/2020-01-25 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-142.133</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-125.2249</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5360</v>
       </c>
       <c r="J3" t="n">
         <v>5360</v>
       </c>
-      <c r="K3" t="n">
-        <v>5360</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-125.2249</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5380</v>
       </c>
       <c r="J4" t="n">
-        <v>5380</v>
-      </c>
-      <c r="K4" t="n">
         <v>5360</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,23 @@
         <v>-125.2249</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
+        <v>5380</v>
+      </c>
+      <c r="J5" t="n">
         <v>5360</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,18 +603,19 @@
         <v>-125.2249</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>5380</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5380</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,16 +642,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>5380</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,18 +679,23 @@
         <v>-140.481</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>5380</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5380</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -726,18 +720,19 @@
         <v>-110.0091</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>5375</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5375</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,18 +757,23 @@
         <v>-220.9442</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>5390</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -798,18 +798,23 @@
         <v>-220.9442</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>5380</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,16 +841,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -872,16 +880,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -908,16 +919,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -944,16 +958,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -980,16 +997,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1016,16 +1036,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1052,16 +1075,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1088,16 +1114,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1124,16 +1153,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1160,16 +1192,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,16 +1231,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1232,16 +1270,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,16 +1309,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1304,16 +1348,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1340,16 +1387,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1376,16 +1426,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,16 +1465,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1448,16 +1504,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1484,16 +1543,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1518,18 +1580,21 @@
         <v>1147.93025014</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1556,16 +1621,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1592,16 +1660,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1626,18 +1697,21 @@
         <v>1411.10025014</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5375</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01639534883721</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1662,18 +1736,15 @@
         <v>1411.10025014</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1698,18 +1769,15 @@
         <v>-637.8142498600002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1734,18 +1802,15 @@
         <v>-637.8142498600002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1770,18 +1835,15 @@
         <v>124.6744501399997</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1806,18 +1868,15 @@
         <v>-41.61924986000025</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1844,16 +1903,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1880,16 +1936,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1916,16 +1969,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1952,16 +2002,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1988,16 +2035,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2024,16 +2068,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2060,16 +2101,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2096,16 +2134,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2132,16 +2167,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2168,16 +2200,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2204,16 +2233,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2240,16 +2266,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2276,16 +2299,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2312,16 +2332,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2348,16 +2365,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2384,16 +2398,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2420,16 +2431,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2456,16 +2464,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2492,16 +2497,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2528,16 +2530,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2564,16 +2563,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2600,16 +2596,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2636,16 +2629,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2672,16 +2662,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2706,18 +2693,15 @@
         <v>-991.8528498600003</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2744,16 +2728,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2780,16 +2761,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2814,18 +2792,15 @@
         <v>-1712.22824986</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2852,16 +2827,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2888,16 +2860,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2924,16 +2893,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2960,16 +2926,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2996,16 +2959,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3032,16 +2992,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3068,16 +3025,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3102,18 +3056,15 @@
         <v>-1724.55663562</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3138,18 +3089,15 @@
         <v>-1726.43103562</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3174,18 +3122,15 @@
         <v>-1371.80263562</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3212,16 +3157,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3246,18 +3188,15 @@
         <v>-1259.86893562</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3282,18 +3221,15 @@
         <v>-1266.69213562</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3320,16 +3256,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3356,16 +3289,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3390,18 +3320,15 @@
         <v>-1833.16893562</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3426,18 +3353,15 @@
         <v>-1822.85903562</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3462,18 +3386,15 @@
         <v>-1740.95903562</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3498,18 +3419,15 @@
         <v>-1740.95903562</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3536,16 +3454,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3572,16 +3487,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3608,16 +3520,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3644,16 +3553,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3678,18 +3584,15 @@
         <v>-1489.15903562</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3714,18 +3617,15 @@
         <v>-1487.53103562</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3750,18 +3650,15 @@
         <v>-1509.07863562</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3788,16 +3685,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3824,16 +3718,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3858,18 +3749,15 @@
         <v>-1748.87873562</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3894,18 +3782,15 @@
         <v>-1748.87873562</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3930,18 +3815,15 @@
         <v>-1740.77873562</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3968,16 +3850,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4004,16 +3883,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4040,16 +3916,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4076,16 +3949,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4110,18 +3980,15 @@
         <v>-1896.45643562</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4148,16 +4015,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4184,16 +4048,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4220,16 +4081,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4256,16 +4114,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4292,16 +4147,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4328,16 +4180,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4364,16 +4213,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4400,18 +4246,15 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest MCO.xlsx
+++ b/BackTest/2020-01-25 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-142.133</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-125.2249</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>5360</v>
@@ -521,7 +521,7 @@
         <v>-125.2249</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>5380</v>
@@ -562,7 +562,7 @@
         <v>-125.2249</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>5380</v>
@@ -603,7 +603,7 @@
         <v>-125.2249</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>5380</v>
@@ -640,9 +640,11 @@
         <v>-125.2249</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5380</v>
+      </c>
       <c r="J7" t="n">
         <v>5380</v>
       </c>
@@ -679,7 +681,7 @@
         <v>-140.481</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>5380</v>
@@ -720,14 +722,10 @@
         <v>-110.0091</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5375</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -757,19 +755,11 @@
         <v>-220.9442</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5390</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -798,19 +788,11 @@
         <v>-220.9442</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5380</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -842,14 +824,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -881,14 +857,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -920,14 +890,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -959,14 +923,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -998,14 +956,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1037,14 +989,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1076,14 +1022,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1115,14 +1055,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1154,14 +1088,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1193,14 +1121,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1232,14 +1154,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1271,14 +1187,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1310,14 +1220,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1346,17 +1250,11 @@
         <v>1126.69195014</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1385,17 +1283,11 @@
         <v>1153.69195014</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1424,17 +1316,11 @@
         <v>1153.69195014</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1466,14 +1352,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1502,17 +1382,11 @@
         <v>1126.93025014</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1541,17 +1415,11 @@
         <v>1147.93025014</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1580,17 +1448,11 @@
         <v>1147.93025014</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1619,17 +1481,11 @@
         <v>949.2818501399995</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1658,17 +1514,11 @@
         <v>955.6580501399995</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1697,19 +1547,13 @@
         <v>1411.10025014</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>5375</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>1.01639534883721</v>
+        <v>1</v>
       </c>
       <c r="M34" t="inlineStr"/>
     </row>
@@ -1736,7 +1580,7 @@
         <v>1411.10025014</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1769,7 +1613,7 @@
         <v>-637.8142498600002</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1802,7 +1646,7 @@
         <v>-637.8142498600002</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1835,7 +1679,7 @@
         <v>124.6744501399997</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1868,7 +1712,7 @@
         <v>-41.61924986000025</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1901,7 +1745,7 @@
         <v>47.90235013999975</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1934,7 +1778,7 @@
         <v>58.60235013999976</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1967,7 +1811,7 @@
         <v>861.9169501399998</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2000,7 +1844,7 @@
         <v>598.3469501399998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2033,7 +1877,7 @@
         <v>721.7390501399998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2066,7 +1910,7 @@
         <v>721.7390501399998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2099,7 +1943,7 @@
         <v>721.7390501399998</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2132,7 +1976,7 @@
         <v>721.7390501399998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2165,7 +2009,7 @@
         <v>936.8389501399997</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2198,7 +2042,7 @@
         <v>927.6389501399997</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2231,7 +2075,7 @@
         <v>792.7672501399996</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2264,7 +2108,7 @@
         <v>1555.08345014</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2297,7 +2141,7 @@
         <v>1555.08345014</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2330,7 +2174,7 @@
         <v>1564.292750139999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2363,7 +2207,7 @@
         <v>1503.391750139999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2396,7 +2240,7 @@
         <v>314.1432501399995</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2429,7 +2273,7 @@
         <v>330.4232501399995</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2462,7 +2306,7 @@
         <v>325.5232501399995</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2495,7 +2339,7 @@
         <v>309.2432501399995</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2528,7 +2372,7 @@
         <v>226.3432501399995</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2561,7 +2405,7 @@
         <v>151.2154501399995</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2627,7 +2471,7 @@
         <v>-961.7612498600004</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2660,7 +2504,7 @@
         <v>-889.2277498600004</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2693,7 +2537,7 @@
         <v>-991.8528498600003</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2726,7 +2570,7 @@
         <v>-1250.24464986</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2759,7 +2603,7 @@
         <v>-1742.78164986</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2792,7 +2636,7 @@
         <v>-1712.22824986</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2825,7 +2669,7 @@
         <v>-1846.14254986</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2858,7 +2702,7 @@
         <v>-2113.41664986</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2891,7 +2735,7 @@
         <v>-2107.41664986</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2924,7 +2768,7 @@
         <v>-2107.41664986</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2957,7 +2801,7 @@
         <v>-2105.54223562</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3056,7 +2900,7 @@
         <v>-1724.55663562</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3089,7 +2933,7 @@
         <v>-1726.43103562</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3122,7 +2966,7 @@
         <v>-1371.80263562</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3188,7 +3032,7 @@
         <v>-1259.86893562</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3221,7 +3065,7 @@
         <v>-1266.69213562</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3320,7 +3164,7 @@
         <v>-1833.16893562</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3353,7 +3197,7 @@
         <v>-1822.85903562</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3386,7 +3230,7 @@
         <v>-1740.95903562</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3419,7 +3263,7 @@
         <v>-1740.95903562</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3584,7 +3428,7 @@
         <v>-1489.15903562</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3617,7 +3461,7 @@
         <v>-1487.53103562</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3650,7 +3494,7 @@
         <v>-1509.07863562</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3749,7 +3593,7 @@
         <v>-1748.87873562</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3782,7 +3626,7 @@
         <v>-1748.87873562</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3815,7 +3659,7 @@
         <v>-1740.77873562</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3980,7 +3824,7 @@
         <v>-1896.45643562</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4255,6 +4099,6 @@
       <c r="M111" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest MCO.xlsx
+++ b/BackTest/2020-01-25 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-142.133</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-125.2249</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5360</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-125.2249</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5380</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5360</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-125.2249</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5380</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5360</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-125.2249</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5380</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-125.2249</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5380</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5380</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-140.481</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5380</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5380</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,7 +682,7 @@
         <v>-110.0091</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -755,7 +715,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -788,7 +748,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -821,7 +781,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -854,7 +814,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -887,7 +847,7 @@
         <v>-187.8216</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -920,7 +880,7 @@
         <v>-183.9216</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -953,7 +913,7 @@
         <v>-176.8216</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -986,7 +946,7 @@
         <v>-174.4832</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1019,7 +979,7 @@
         <v>592.6591999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1085,7 +1045,7 @@
         <v>525.7186501399997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1250,7 +1210,7 @@
         <v>1126.69195014</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1283,7 +1243,7 @@
         <v>1153.69195014</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1316,7 +1276,7 @@
         <v>1153.69195014</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1382,7 +1342,7 @@
         <v>1126.93025014</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1415,7 +1375,7 @@
         <v>1147.93025014</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1448,7 +1408,7 @@
         <v>1147.93025014</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1481,7 +1441,7 @@
         <v>949.2818501399995</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1514,7 +1474,7 @@
         <v>955.6580501399995</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1547,7 +1507,7 @@
         <v>1411.10025014</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1580,7 +1540,7 @@
         <v>1411.10025014</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1613,7 +1573,7 @@
         <v>-637.8142498600002</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1646,7 +1606,7 @@
         <v>-637.8142498600002</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1679,7 +1639,7 @@
         <v>124.6744501399997</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1712,7 +1672,7 @@
         <v>-41.61924986000025</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1745,7 +1705,7 @@
         <v>47.90235013999975</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1778,7 +1738,7 @@
         <v>58.60235013999976</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1811,7 +1771,7 @@
         <v>861.9169501399998</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1844,7 +1804,7 @@
         <v>598.3469501399998</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1877,7 +1837,7 @@
         <v>721.7390501399998</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1910,7 +1870,7 @@
         <v>721.7390501399998</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1943,7 +1903,7 @@
         <v>721.7390501399998</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1976,7 +1936,7 @@
         <v>721.7390501399998</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2009,7 +1969,7 @@
         <v>936.8389501399997</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2042,7 +2002,7 @@
         <v>927.6389501399997</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2075,7 +2035,7 @@
         <v>792.7672501399996</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2108,7 +2068,7 @@
         <v>1555.08345014</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2141,7 +2101,7 @@
         <v>1555.08345014</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2174,7 +2134,7 @@
         <v>1564.292750139999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2207,7 +2167,7 @@
         <v>1503.391750139999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2240,7 +2200,7 @@
         <v>314.1432501399995</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2273,7 +2233,7 @@
         <v>330.4232501399995</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2306,7 +2266,7 @@
         <v>325.5232501399995</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2339,7 +2299,7 @@
         <v>309.2432501399995</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2372,7 +2332,7 @@
         <v>226.3432501399995</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2405,7 +2365,7 @@
         <v>151.2154501399995</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2471,7 +2431,7 @@
         <v>-961.7612498600004</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2504,7 +2464,7 @@
         <v>-889.2277498600004</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2537,7 +2497,7 @@
         <v>-991.8528498600003</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2570,7 +2530,7 @@
         <v>-1250.24464986</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2603,7 +2563,7 @@
         <v>-1742.78164986</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2636,7 +2596,7 @@
         <v>-1712.22824986</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2669,7 +2629,7 @@
         <v>-1846.14254986</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2702,7 +2662,7 @@
         <v>-2113.41664986</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2735,7 +2695,7 @@
         <v>-2107.41664986</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2768,7 +2728,7 @@
         <v>-2107.41664986</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2801,7 +2761,7 @@
         <v>-2105.54223562</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3626,10 +3586,14 @@
         <v>-1748.87873562</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5310</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5310</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
@@ -3659,11 +3623,19 @@
         <v>-1740.77873562</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5310</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5310</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3695,8 +3667,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5310</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3758,10 +3736,14 @@
         <v>-1888.45643562</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5285</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5285</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
@@ -3791,11 +3773,19 @@
         <v>-1896.65643562</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5285</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3824,11 +3814,19 @@
         <v>-1896.45643562</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>5280</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5285</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3857,10 +3855,14 @@
         <v>-1273.94273562</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5315</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5315</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
@@ -3893,8 +3895,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3926,8 +3934,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5315</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4099,6 +4113,6 @@
       <c r="M111" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest MCO.xlsx
+++ b/BackTest/2020-01-25 BackTest MCO.xlsx
@@ -451,7 +451,7 @@
         <v>-142.133</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-125.2249</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5360</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5360</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -520,8 +524,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>5360</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +560,17 @@
         <v>-125.2249</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>5360</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -616,7 +632,7 @@
         <v>-125.2249</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +665,7 @@
         <v>-140.481</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +698,7 @@
         <v>-110.0091</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +731,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +764,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +797,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +830,7 @@
         <v>-220.9442</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +863,7 @@
         <v>-187.8216</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +896,7 @@
         <v>-183.9216</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +929,7 @@
         <v>-176.8216</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +962,7 @@
         <v>-174.4832</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +995,7 @@
         <v>592.6591999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1061,7 @@
         <v>525.7186501399997</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1441,7 +1457,7 @@
         <v>949.2818501399995</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1490,7 @@
         <v>955.6580501399995</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1523,7 @@
         <v>1411.10025014</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1556,7 @@
         <v>1411.10025014</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1589,7 @@
         <v>-637.8142498600002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1622,7 @@
         <v>-637.8142498600002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1804,7 +1820,7 @@
         <v>598.3469501399998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1936,7 +1952,7 @@
         <v>721.7390501399998</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2002,7 +2018,7 @@
         <v>927.6389501399997</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2051,7 @@
         <v>792.7672501399996</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2084,7 @@
         <v>1555.08345014</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2167,7 +2183,7 @@
         <v>1503.391750139999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2216,7 @@
         <v>314.1432501399995</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3586,14 +3602,10 @@
         <v>-1748.87873562</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5310</v>
-      </c>
-      <c r="J97" t="n">
-        <v>5310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
@@ -3623,19 +3635,11 @@
         <v>-1740.77873562</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5310</v>
-      </c>
-      <c r="J98" t="n">
-        <v>5310</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3667,14 +3671,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5310</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-25 BackTest MCO.xlsx
+++ b/BackTest/2020-01-25 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>5.7944</v>
       </c>
       <c r="G2" t="n">
-        <v>-142.133</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>16.9081</v>
       </c>
       <c r="G3" t="n">
-        <v>-125.2249</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5360</v>
       </c>
       <c r="I3" t="n">
         <v>5360</v>
       </c>
-      <c r="J3" t="n">
-        <v>5360</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,24 +507,23 @@
         <v>46.7791</v>
       </c>
       <c r="G4" t="n">
-        <v>-125.2249</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+        <v>5380</v>
+      </c>
+      <c r="I4" t="n">
         <v>5360</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,24 +545,21 @@
         <v>16.5</v>
       </c>
       <c r="G5" t="n">
-        <v>-125.2249</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
         <v>5360</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -596,18 +581,15 @@
         <v>5.5</v>
       </c>
       <c r="G6" t="n">
-        <v>-125.2249</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,18 +611,15 @@
         <v>45.3053</v>
       </c>
       <c r="G7" t="n">
-        <v>-125.2249</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -662,18 +641,15 @@
         <v>15.2561</v>
       </c>
       <c r="G8" t="n">
-        <v>-140.481</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -695,18 +671,19 @@
         <v>30.4719</v>
       </c>
       <c r="G9" t="n">
-        <v>-110.0091</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>5375</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5375</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,18 +705,21 @@
         <v>110.9351</v>
       </c>
       <c r="G10" t="n">
-        <v>-220.9442</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -761,18 +741,23 @@
         <v>1.3204</v>
       </c>
       <c r="G11" t="n">
-        <v>-220.9442</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>5380</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -794,18 +779,23 @@
         <v>564.6304</v>
       </c>
       <c r="G12" t="n">
-        <v>-220.9442</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>5380</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -827,18 +817,21 @@
         <v>460.7495</v>
       </c>
       <c r="G13" t="n">
-        <v>-220.9442</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -860,18 +853,21 @@
         <v>33.1226</v>
       </c>
       <c r="G14" t="n">
-        <v>-187.8216</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -893,18 +889,21 @@
         <v>3.9</v>
       </c>
       <c r="G15" t="n">
-        <v>-183.9216</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -926,18 +925,21 @@
         <v>7.1</v>
       </c>
       <c r="G16" t="n">
-        <v>-176.8216</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -959,18 +961,21 @@
         <v>2.3384</v>
       </c>
       <c r="G17" t="n">
-        <v>-174.4832</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -992,18 +997,21 @@
         <v>767.1424</v>
       </c>
       <c r="G18" t="n">
-        <v>592.6591999999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1025,18 +1033,21 @@
         <v>1334.7096</v>
       </c>
       <c r="G19" t="n">
-        <v>1927.3688</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1058,18 +1069,21 @@
         <v>1401.65014986</v>
       </c>
       <c r="G20" t="n">
-        <v>525.7186501399997</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1091,18 +1105,21 @@
         <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>531.7186501399997</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1124,18 +1141,21 @@
         <v>13.2499</v>
       </c>
       <c r="G22" t="n">
-        <v>531.7186501399997</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1157,18 +1177,21 @@
         <v>26.9</v>
       </c>
       <c r="G23" t="n">
-        <v>531.7186501399997</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>5375</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1.009883720930233</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1190,18 +1213,15 @@
         <v>602.8733</v>
       </c>
       <c r="G24" t="n">
-        <v>1134.59195014</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1223,18 +1243,15 @@
         <v>7.9</v>
       </c>
       <c r="G25" t="n">
-        <v>1126.69195014</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1256,18 +1273,15 @@
         <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>1153.69195014</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1289,18 +1303,15 @@
         <v>73.79524671</v>
       </c>
       <c r="G27" t="n">
-        <v>1153.69195014</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1322,18 +1333,15 @@
         <v>19.7617</v>
       </c>
       <c r="G28" t="n">
-        <v>1133.93025014</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1355,18 +1363,15 @@
         <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>1126.93025014</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1388,18 +1393,15 @@
         <v>21</v>
       </c>
       <c r="G30" t="n">
-        <v>1147.93025014</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1421,18 +1423,15 @@
         <v>557.6</v>
       </c>
       <c r="G31" t="n">
-        <v>1147.93025014</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1454,18 +1453,15 @@
         <v>198.6484</v>
       </c>
       <c r="G32" t="n">
-        <v>949.2818501399995</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1487,18 +1483,15 @@
         <v>6.3762</v>
       </c>
       <c r="G33" t="n">
-        <v>955.6580501399995</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1520,18 +1513,15 @@
         <v>455.4422</v>
       </c>
       <c r="G34" t="n">
-        <v>1411.10025014</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1553,18 +1543,15 @@
         <v>12.3517</v>
       </c>
       <c r="G35" t="n">
-        <v>1411.10025014</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1586,18 +1573,15 @@
         <v>2048.9145</v>
       </c>
       <c r="G36" t="n">
-        <v>-637.8142498600002</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1619,18 +1603,15 @@
         <v>1573.38</v>
       </c>
       <c r="G37" t="n">
-        <v>-637.8142498600002</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1652,18 +1633,15 @@
         <v>762.4887</v>
       </c>
       <c r="G38" t="n">
-        <v>124.6744501399997</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1685,18 +1663,15 @@
         <v>166.2937</v>
       </c>
       <c r="G39" t="n">
-        <v>-41.61924986000025</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1718,18 +1693,15 @@
         <v>89.52160000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>47.90235013999975</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1751,18 +1723,15 @@
         <v>10.7</v>
       </c>
       <c r="G41" t="n">
-        <v>58.60235013999976</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1784,18 +1753,15 @@
         <v>803.3146</v>
       </c>
       <c r="G42" t="n">
-        <v>861.9169501399998</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1817,18 +1783,15 @@
         <v>263.57</v>
       </c>
       <c r="G43" t="n">
-        <v>598.3469501399998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1850,18 +1813,15 @@
         <v>123.3921</v>
       </c>
       <c r="G44" t="n">
-        <v>721.7390501399998</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1883,18 +1843,15 @@
         <v>235.0262</v>
       </c>
       <c r="G45" t="n">
-        <v>721.7390501399998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1916,18 +1873,15 @@
         <v>182.9169</v>
       </c>
       <c r="G46" t="n">
-        <v>721.7390501399998</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1949,18 +1903,15 @@
         <v>6.3</v>
       </c>
       <c r="G47" t="n">
-        <v>721.7390501399998</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1982,18 +1933,15 @@
         <v>215.0999</v>
       </c>
       <c r="G48" t="n">
-        <v>936.8389501399997</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2015,18 +1963,15 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>927.6389501399997</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2048,18 +1993,15 @@
         <v>134.8717</v>
       </c>
       <c r="G50" t="n">
-        <v>792.7672501399996</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2081,18 +2023,15 @@
         <v>762.3162</v>
       </c>
       <c r="G51" t="n">
-        <v>1555.08345014</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2114,18 +2053,15 @@
         <v>5.9331</v>
       </c>
       <c r="G52" t="n">
-        <v>1555.08345014</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2147,18 +2083,15 @@
         <v>9.209300000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>1564.292750139999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2180,18 +2113,15 @@
         <v>60.901</v>
       </c>
       <c r="G54" t="n">
-        <v>1503.391750139999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2213,18 +2143,15 @@
         <v>1189.2485</v>
       </c>
       <c r="G55" t="n">
-        <v>314.1432501399995</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2246,18 +2173,15 @@
         <v>16.28</v>
       </c>
       <c r="G56" t="n">
-        <v>330.4232501399995</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2279,18 +2203,15 @@
         <v>4.9</v>
       </c>
       <c r="G57" t="n">
-        <v>325.5232501399995</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2312,18 +2233,15 @@
         <v>16.28</v>
       </c>
       <c r="G58" t="n">
-        <v>309.2432501399995</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2345,18 +2263,15 @@
         <v>82.90000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>226.3432501399995</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2378,18 +2293,15 @@
         <v>75.12779999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>151.2154501399995</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2411,18 +2323,15 @@
         <v>543.468</v>
       </c>
       <c r="G61" t="n">
-        <v>-392.2525498600004</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2444,18 +2353,15 @@
         <v>569.5087</v>
       </c>
       <c r="G62" t="n">
-        <v>-961.7612498600004</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2477,18 +2383,15 @@
         <v>72.5335</v>
       </c>
       <c r="G63" t="n">
-        <v>-889.2277498600004</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2510,18 +2413,15 @@
         <v>102.6251</v>
       </c>
       <c r="G64" t="n">
-        <v>-991.8528498600003</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2543,18 +2443,15 @@
         <v>258.3918</v>
       </c>
       <c r="G65" t="n">
-        <v>-1250.24464986</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2576,18 +2473,15 @@
         <v>492.537</v>
       </c>
       <c r="G66" t="n">
-        <v>-1742.78164986</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2609,18 +2503,15 @@
         <v>30.5534</v>
       </c>
       <c r="G67" t="n">
-        <v>-1712.22824986</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2642,18 +2533,15 @@
         <v>133.9143</v>
       </c>
       <c r="G68" t="n">
-        <v>-1846.14254986</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2675,18 +2563,15 @@
         <v>267.2741</v>
       </c>
       <c r="G69" t="n">
-        <v>-2113.41664986</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2708,18 +2593,15 @@
         <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>-2107.41664986</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2741,18 +2623,15 @@
         <v>26.9897</v>
       </c>
       <c r="G71" t="n">
-        <v>-2107.41664986</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2774,18 +2653,15 @@
         <v>1.87441424</v>
       </c>
       <c r="G72" t="n">
-        <v>-2105.54223562</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2807,18 +2683,15 @@
         <v>57.5573</v>
       </c>
       <c r="G73" t="n">
-        <v>-2163.09953562</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2840,18 +2713,15 @@
         <v>171.7305</v>
       </c>
       <c r="G74" t="n">
-        <v>-2334.83003562</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2873,18 +2743,15 @@
         <v>610.2734</v>
       </c>
       <c r="G75" t="n">
-        <v>-1724.55663562</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2906,18 +2773,15 @@
         <v>1.8744</v>
       </c>
       <c r="G76" t="n">
-        <v>-1726.43103562</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2939,18 +2803,19 @@
         <v>354.6284</v>
       </c>
       <c r="G77" t="n">
-        <v>-1371.80263562</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>5275</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5275</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2972,18 +2837,21 @@
         <v>111.9337</v>
       </c>
       <c r="G78" t="n">
-        <v>-1259.86893562</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>5275</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3005,18 +2873,21 @@
         <v>9.8019</v>
       </c>
       <c r="G79" t="n">
-        <v>-1259.86893562</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>5275</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3038,18 +2909,15 @@
         <v>6.8232</v>
       </c>
       <c r="G80" t="n">
-        <v>-1266.69213562</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3071,18 +2939,15 @@
         <v>1.246</v>
       </c>
       <c r="G81" t="n">
-        <v>-1265.44613562</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3104,18 +2969,15 @@
         <v>578.0326</v>
       </c>
       <c r="G82" t="n">
-        <v>-1843.47873562</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3137,18 +2999,19 @@
         <v>10.3098</v>
       </c>
       <c r="G83" t="n">
-        <v>-1833.16893562</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>5295</v>
+      </c>
+      <c r="I83" t="n">
+        <v>5295</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3170,18 +3033,21 @@
         <v>10.3099</v>
       </c>
       <c r="G84" t="n">
-        <v>-1822.85903562</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>5295</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3203,18 +3069,23 @@
         <v>81.90000000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-1740.95903562</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>5325</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5295</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3236,18 +3107,15 @@
         <v>74.09999999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>-1740.95903562</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3269,18 +3137,15 @@
         <v>183.4517</v>
       </c>
       <c r="G87" t="n">
-        <v>-1740.95903562</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3302,18 +3167,15 @@
         <v>7.7</v>
       </c>
       <c r="G88" t="n">
-        <v>-1733.25903562</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3335,18 +3197,15 @@
         <v>385.7</v>
       </c>
       <c r="G89" t="n">
-        <v>-1733.25903562</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3368,18 +3227,15 @@
         <v>420.8</v>
       </c>
       <c r="G90" t="n">
-        <v>-1312.45903562</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3401,18 +3257,15 @@
         <v>176.7</v>
       </c>
       <c r="G91" t="n">
-        <v>-1489.15903562</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3434,18 +3287,15 @@
         <v>1.628</v>
       </c>
       <c r="G92" t="n">
-        <v>-1487.53103562</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3467,18 +3317,15 @@
         <v>21.5476</v>
       </c>
       <c r="G93" t="n">
-        <v>-1509.07863562</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3500,18 +3347,19 @@
         <v>1.6642</v>
       </c>
       <c r="G94" t="n">
-        <v>-1509.07863562</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>5345</v>
+      </c>
+      <c r="I94" t="n">
+        <v>5345</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3533,18 +3381,23 @@
         <v>239.8001</v>
       </c>
       <c r="G95" t="n">
-        <v>-1748.87873562</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>5345</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3566,18 +3419,23 @@
         <v>24.4</v>
       </c>
       <c r="G96" t="n">
-        <v>-1748.87873562</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>5310</v>
+      </c>
+      <c r="I96" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3599,18 +3457,23 @@
         <v>22.5</v>
       </c>
       <c r="G97" t="n">
-        <v>-1748.87873562</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>5310</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3632,18 +3495,21 @@
         <v>8.1</v>
       </c>
       <c r="G98" t="n">
-        <v>-1740.77873562</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3665,18 +3531,23 @@
         <v>7</v>
       </c>
       <c r="G99" t="n">
-        <v>-1747.77873562</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>5335</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3698,18 +3569,23 @@
         <v>140.6777</v>
       </c>
       <c r="G100" t="n">
-        <v>-1888.45643562</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>5315</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3731,22 +3607,23 @@
         <v>86.90000000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>-1888.45643562</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>5285</v>
       </c>
       <c r="I101" t="n">
-        <v>5285</v>
-      </c>
-      <c r="J101" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>5345</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3768,26 +3645,23 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>-1896.65643562</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>5285</v>
       </c>
       <c r="I102" t="n">
-        <v>5285</v>
-      </c>
-      <c r="J102" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>5345</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3809,26 +3683,23 @@
         <v>0.2</v>
       </c>
       <c r="G103" t="n">
-        <v>-1896.45643562</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>5280</v>
       </c>
       <c r="I103" t="n">
-        <v>5280</v>
-      </c>
-      <c r="J103" t="n">
-        <v>5285</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>5345</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3850,22 +3721,23 @@
         <v>622.5137</v>
       </c>
       <c r="G104" t="n">
-        <v>-1273.94273562</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>5315</v>
       </c>
       <c r="I104" t="n">
-        <v>5315</v>
-      </c>
-      <c r="J104" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>5345</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3887,24 +3759,21 @@
         <v>245.4149</v>
       </c>
       <c r="G105" t="n">
-        <v>-1273.94273562</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3926,24 +3795,21 @@
         <v>0.4986</v>
       </c>
       <c r="G106" t="n">
-        <v>-1273.44413562</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5315</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3965,18 +3831,21 @@
         <v>3</v>
       </c>
       <c r="G107" t="n">
-        <v>-1270.44413562</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3998,18 +3867,21 @@
         <v>0.9258999999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>-1270.44413562</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4031,18 +3903,21 @@
         <v>152.2722</v>
       </c>
       <c r="G109" t="n">
-        <v>-1118.17193562</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4064,18 +3939,21 @@
         <v>49.3986</v>
       </c>
       <c r="G110" t="n">
-        <v>-1068.77333562</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4097,18 +3975,21 @@
         <v>13.2</v>
       </c>
       <c r="G111" t="n">
-        <v>-1081.97333562</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>5345</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
